--- a/life/2020tax.xlsx
+++ b/life/2020tax.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>个人扣减额</t>
   </si>
@@ -139,6 +139,32 @@
   </si>
   <si>
     <t>公积金扣减</t>
+  </si>
+  <si>
+    <t>okb</t>
+  </si>
+  <si>
+    <t>net income monthly</t>
+  </si>
+  <si>
+    <t>annual 
+net income</t>
+  </si>
+  <si>
+    <t>Special 
+deduct</t>
+  </si>
+  <si>
+    <t>personal 
+tax</t>
+  </si>
+  <si>
+    <t>housing
+ fund</t>
+  </si>
+  <si>
+    <t>Social
+ benifit</t>
   </si>
 </sst>
 </file>
@@ -202,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,89 +1357,391 @@
     <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E6" s="1" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5</f>
+        <v>90000</v>
+      </c>
+      <c r="E5" s="1">
+        <f>F5</f>
+        <v>5825.05</v>
+      </c>
+      <c r="F5" s="1">
+        <f>G5+H5</f>
+        <v>5825.05</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3334</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2491.0500000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <f>J5</f>
+        <v>4000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I1</f>
+        <v>5000</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L16" si="0">D5-E5-I5-K5</f>
+        <v>75174.95</v>
+      </c>
+      <c r="M5" s="4">
+        <f>ROUND(MAX(L5*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>4997.5</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5</f>
+        <v>4997.5</v>
+      </c>
+      <c r="O5" s="1">
+        <f>C5-F5-N5</f>
+        <v>79177.45</v>
+      </c>
+      <c r="P5" s="1">
+        <f>G5*2</f>
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6+D5</f>
+        <v>180000</v>
+      </c>
+      <c r="E6" s="1">
+        <f>E5+F6</f>
+        <v>11650.1</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F16" si="1">G6+H6</f>
+        <v>5825.05</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3334</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2491.0500000000002</v>
+      </c>
       <c r="I6" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <f>I5+J6</f>
+        <v>8000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K6" s="1">
+        <f>K5+$I$1</f>
+        <v>10000</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>150349.9</v>
+      </c>
+      <c r="M6" s="4">
+        <f>ROUND(MAX(L6*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>13149.98</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N16" si="2">M6-M5</f>
+        <v>8152.48</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O16" si="3">C6-F6-N6</f>
+        <v>76022.47</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" ref="P6:P16" si="4">G6*2</f>
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D16" si="5">C7+D6</f>
+        <v>270000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E16" si="6">E6+F7</f>
+        <v>17475.150000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>5825.05</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3334</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2491.0500000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I16" si="7">I6+J7</f>
+        <v>12000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K16" si="8">K6+$I$1</f>
+        <v>15000</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>225524.85</v>
+      </c>
+      <c r="M7" s="4">
+        <f>ROUND(MAX(L7*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>28184.97</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>15034.990000000002</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>69139.959999999992</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="4"/>
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="5"/>
+        <v>360000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="6"/>
+        <v>23300.2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>5825.05</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3334</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2491.0500000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>300699.8</v>
+      </c>
+      <c r="M8" s="4">
+        <f>ROUND(MAX(L8*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>43254.95</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>15069.979999999996</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
+        <v>69104.97</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="5"/>
+        <v>450000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="6"/>
+        <v>29125.25</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>5825.05</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3334</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2491.0500000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="7"/>
+        <v>20000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="8"/>
+        <v>25000</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>375874.75</v>
+      </c>
+      <c r="M9" s="4">
+        <f>ROUND(MAX(L9*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
+        <v>62048.69</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>18793.740000000005</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>65381.209999999992</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="4"/>
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>90000</v>
       </c>
       <c r="D10" s="1">
-        <f>C10</f>
-        <v>90000</v>
+        <f t="shared" si="5"/>
+        <v>540000</v>
       </c>
       <c r="E10" s="1">
-        <f>F10</f>
-        <v>5825.05</v>
+        <f t="shared" si="6"/>
+        <v>34950.300000000003</v>
       </c>
       <c r="F10" s="1">
-        <f>G10+H10</f>
+        <f t="shared" si="1"/>
         <v>5825.05</v>
       </c>
       <c r="G10" s="1">
@@ -1417,57 +1751,57 @@
         <v>2491.0500000000002</v>
       </c>
       <c r="I10" s="1">
-        <f>J10</f>
-        <v>4000</v>
+        <f t="shared" si="7"/>
+        <v>24000</v>
       </c>
       <c r="J10" s="1">
         <v>4000</v>
       </c>
       <c r="K10" s="1">
-        <f>I6</f>
-        <v>5000</v>
+        <f t="shared" si="8"/>
+        <v>30000</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L21" si="0">D10-E10-I10-K10</f>
-        <v>75174.95</v>
+        <f t="shared" si="0"/>
+        <v>451049.7</v>
       </c>
       <c r="M10" s="4">
         <f>ROUND(MAX(L10*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>4997.5</v>
+        <v>82394.91</v>
       </c>
       <c r="N10" s="1">
-        <f>M10</f>
-        <v>4997.5</v>
+        <f t="shared" si="2"/>
+        <v>20346.22</v>
       </c>
       <c r="O10" s="1">
-        <f>C10-F10-N10</f>
-        <v>79177.45</v>
+        <f t="shared" si="3"/>
+        <v>63828.729999999996</v>
       </c>
       <c r="P10" s="1">
-        <f>G10*2</f>
+        <f t="shared" si="4"/>
         <v>6668</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>90000</v>
       </c>
       <c r="D11" s="1">
-        <f>C11+D10</f>
-        <v>180000</v>
+        <f t="shared" si="5"/>
+        <v>630000</v>
       </c>
       <c r="E11" s="1">
-        <f>E10+F11</f>
-        <v>11650.1</v>
+        <f t="shared" si="6"/>
+        <v>40775.350000000006</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F21" si="1">G11+H11</f>
+        <f t="shared" si="1"/>
         <v>5825.05</v>
       </c>
       <c r="G11" s="1">
@@ -1477,54 +1811,54 @@
         <v>2491.0500000000002</v>
       </c>
       <c r="I11" s="1">
-        <f>I10+J11</f>
-        <v>8000</v>
+        <f t="shared" si="7"/>
+        <v>28000</v>
       </c>
       <c r="J11" s="1">
         <v>4000</v>
       </c>
       <c r="K11" s="1">
-        <f>K10+$I$6</f>
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>35000</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>150349.9</v>
+        <v>526224.65</v>
       </c>
       <c r="M11" s="4">
         <f>ROUND(MAX(L11*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>13149.98</v>
+        <v>104947.4</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N21" si="2">M11-M10</f>
-        <v>8152.48</v>
+        <f t="shared" si="2"/>
+        <v>22552.489999999991</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O21" si="3">C11-F11-N11</f>
-        <v>76022.47</v>
+        <f t="shared" si="3"/>
+        <v>61622.460000000006</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:P21" si="4">G11*2</f>
+        <f t="shared" si="4"/>
         <v>6668</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>90000</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D21" si="5">C12+D11</f>
-        <v>270000</v>
+        <f t="shared" si="5"/>
+        <v>720000</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E21" si="6">E11+F12</f>
-        <v>17475.150000000001</v>
+        <f t="shared" si="6"/>
+        <v>46600.400000000009</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
@@ -1537,54 +1871,54 @@
         <v>2491.0500000000002</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12:I21" si="7">I11+J12</f>
-        <v>12000</v>
+        <f t="shared" si="7"/>
+        <v>32000</v>
       </c>
       <c r="J12" s="1">
         <v>4000</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:K21" si="8">K11+$I$6</f>
-        <v>15000</v>
+        <f t="shared" si="8"/>
+        <v>40000</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>225524.85</v>
+        <v>601399.6</v>
       </c>
       <c r="M12" s="4">
         <f>ROUND(MAX(L12*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>28184.97</v>
+        <v>127499.88</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>15034.990000000002</v>
+        <v>22552.48000000001</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="3"/>
-        <v>69139.959999999992</v>
+        <v>61622.469999999987</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="4"/>
         <v>6668</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>90000</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="5"/>
-        <v>360000</v>
+        <v>810000</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="6"/>
-        <v>23300.2</v>
+        <v>52425.450000000012</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
@@ -1598,53 +1932,53 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="7"/>
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="J13" s="1">
         <v>4000</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="8"/>
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>300699.8</v>
+        <v>676574.55</v>
       </c>
       <c r="M13" s="4">
         <f>ROUND(MAX(L13*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>43254.95</v>
+        <v>150881.09</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>15069.979999999996</v>
+        <v>23381.209999999992</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="3"/>
-        <v>69104.97</v>
+        <v>60793.740000000005</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="4"/>
         <v>6668</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>90000</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="5"/>
-        <v>450000</v>
+        <v>900000</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="6"/>
-        <v>29125.25</v>
+        <v>58250.500000000015</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -1658,53 +1992,56 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="J14" s="1">
         <v>4000</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="8"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>375874.75</v>
+        <v>751749.5</v>
       </c>
       <c r="M14" s="4">
         <f>ROUND(MAX(L14*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>62048.69</v>
+        <v>177192.33</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>18793.740000000005</v>
+        <v>26311.239999999991</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="3"/>
-        <v>65381.209999999992</v>
+        <v>57863.710000000006</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="4"/>
         <v>6668</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>90000</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="5"/>
-        <v>540000</v>
+        <v>990000</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="6"/>
-        <v>34950.300000000003</v>
+        <v>64075.550000000017</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
@@ -1718,53 +2055,53 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" si="7"/>
-        <v>24000</v>
+        <v>44000</v>
       </c>
       <c r="J15" s="1">
         <v>4000</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="8"/>
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>451049.7</v>
+        <v>826924.45</v>
       </c>
       <c r="M15" s="4">
         <f>ROUND(MAX(L15*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>82394.91</v>
+        <v>203503.56</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>20346.22</v>
+        <v>26311.23000000001</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="3"/>
-        <v>63828.729999999996</v>
+        <v>57863.719999999987</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="4"/>
         <v>6668</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>90000</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="5"/>
-        <v>630000</v>
+        <v>1080000</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="6"/>
-        <v>40775.350000000006</v>
+        <v>69900.60000000002</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
@@ -1778,355 +2115,62 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="7"/>
-        <v>28000</v>
+        <v>48000</v>
       </c>
       <c r="J16" s="1">
         <v>4000</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="8"/>
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>526224.65</v>
+        <v>902099.4</v>
       </c>
       <c r="M16" s="4">
         <f>ROUND(MAX(L16*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>104947.4</v>
+        <v>229814.79</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>22552.489999999991</v>
+        <v>26311.23000000001</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="3"/>
-        <v>61622.460000000006</v>
+        <v>57863.719999999987</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="4"/>
         <v>6668</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
-        <v>90000</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="5"/>
-        <v>720000</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="6"/>
-        <v>46600.400000000009</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>5825.05</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3334</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2491.0500000000002</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="7"/>
-        <v>32000</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="8"/>
-        <v>40000</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>601399.6</v>
-      </c>
-      <c r="M17" s="4">
-        <f>ROUND(MAX(L17*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>127499.88</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="2"/>
-        <v>22552.48000000001</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>61622.469999999987</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="4"/>
-        <v>6668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3">
-        <v>90000</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="5"/>
-        <v>810000</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="6"/>
-        <v>52425.450000000012</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>5825.05</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3334</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2491.0500000000002</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="7"/>
-        <v>36000</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="8"/>
-        <v>45000</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>676574.55</v>
-      </c>
-      <c r="M18" s="4">
-        <f>ROUND(MAX(L18*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>150881.09</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="2"/>
-        <v>23381.209999999992</v>
+    <row r="17" spans="14:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="O17" s="5">
+        <f>SUM(O5:O16)</f>
+        <v>780284.60999999987</v>
+      </c>
+      <c r="P17" s="5">
+        <f>SUM(P5:P16)</f>
+        <v>80016</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>SUM(Q5:Q16)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="N18" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="3"/>
-        <v>60793.740000000005</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="4"/>
-        <v>6668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3">
-        <v>90000</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="5"/>
-        <v>900000</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="6"/>
-        <v>58250.500000000015</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>5825.05</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3334</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2491.0500000000002</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="7"/>
-        <v>40000</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="8"/>
-        <v>50000</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>751749.5</v>
-      </c>
-      <c r="M19" s="4">
-        <f>ROUND(MAX(L19*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>177192.33</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="2"/>
-        <v>26311.239999999991</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="3"/>
-        <v>57863.710000000006</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="4"/>
-        <v>6668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3">
-        <v>90000</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="5"/>
-        <v>990000</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="6"/>
-        <v>64075.550000000017</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>5825.05</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3334</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2491.0500000000002</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="7"/>
-        <v>44000</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="8"/>
-        <v>55000</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>826924.45</v>
-      </c>
-      <c r="M20" s="4">
-        <f>ROUND(MAX(L20*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>203503.56</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="2"/>
-        <v>26311.23000000001</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="3"/>
-        <v>57863.719999999987</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="4"/>
-        <v>6668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>90000</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="5"/>
-        <v>1080000</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="6"/>
-        <v>69900.60000000002</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>5825.05</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3334</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2491.0500000000002</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="7"/>
-        <v>48000</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="8"/>
-        <v>60000</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>902099.4</v>
-      </c>
-      <c r="M21" s="4">
-        <f>ROUND(MAX(L21*{0.03,0.1,0.2,0.25,0.3,0.35,0.45}-{0,2520,16920,31920,52920,85920,181920},0),2)</f>
-        <v>229814.79</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="2"/>
-        <v>26311.23000000001</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="3"/>
-        <v>57863.719999999987</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="4"/>
-        <v>6668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="N22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="5">
-        <f>SUM(O10:O21)</f>
-        <v>780284.60999999987</v>
-      </c>
-      <c r="P22" s="5">
-        <f>SUM(P10:P21)</f>
-        <v>80016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="N23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="5">
-        <f>O22/12</f>
+        <f>O17+P17+Q17</f>
+        <v>1260300.6099999999</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="O19" s="5">
+        <f>O17/12</f>
         <v>65023.717499999992</v>
       </c>
     </row>

--- a/life/2020tax.xlsx
+++ b/life/2020tax.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="32780" windowHeight="20540" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2020" sheetId="2" r:id="rId2"/>
+    <sheet name="okb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
   <si>
     <t>个人扣减额</t>
   </si>
@@ -165,13 +166,137 @@
   <si>
     <t>Social
  benifit</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>m9</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>m11</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>okb2019</t>
+  </si>
+  <si>
+    <t>okb2020</t>
+  </si>
+  <si>
+    <t>okb2021</t>
+  </si>
+  <si>
+    <t>okb2022</t>
+  </si>
+  <si>
+    <t>3*okb2020</t>
+  </si>
+  <si>
+    <t>15*okb1029</t>
+  </si>
+  <si>
+    <t>12*okb2019</t>
+  </si>
+  <si>
+    <t>12*okb2020</t>
+  </si>
+  <si>
+    <t>3*okb2021</t>
+  </si>
+  <si>
+    <t>12*okb2021</t>
+  </si>
+  <si>
+    <t>3*okb2022</t>
+  </si>
+  <si>
+    <t>3*okb2023</t>
+  </si>
+  <si>
+    <t>9*okb2019</t>
+  </si>
+  <si>
+    <t>12*okb2022</t>
+  </si>
+  <si>
+    <t>9*okb2020</t>
+  </si>
+  <si>
+    <t>3*okb2024</t>
+  </si>
+  <si>
+    <t>12*okb2023</t>
+  </si>
+  <si>
+    <t>9*okb2021</t>
+  </si>
+  <si>
+    <t>12*okb2024</t>
+  </si>
+  <si>
+    <t>3*okb2025</t>
+  </si>
+  <si>
+    <t>入职月</t>
+  </si>
+  <si>
+    <t>授予月</t>
+  </si>
+  <si>
+    <t>归属月</t>
+  </si>
+  <si>
+    <t>授予数量/月
+(共48个月)</t>
+  </si>
+  <si>
+    <t>2019年授予总数</t>
+  </si>
+  <si>
+    <t>2020年授予总数</t>
+  </si>
+  <si>
+    <t>2021年授予总数</t>
+  </si>
+  <si>
+    <t>2022年授予总数</t>
+  </si>
+  <si>
+    <t>2023年授予总数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +322,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +381,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,15 +1485,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2145,7 +2283,11 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="17" spans="14:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:17" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <f>SUM(C5:C16)</f>
+        <v>1080000</v>
+      </c>
       <c r="O17" s="5">
         <f>SUM(O5:O16)</f>
         <v>780284.60999999987</v>
@@ -2159,7 +2301,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="18" spans="14:17" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="N18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2168,11 +2310,669 @@
         <v>1260300.6099999999</v>
       </c>
     </row>
-    <row r="19" spans="14:17" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" ht="24" x14ac:dyDescent="0.2">
       <c r="O19" s="5">
         <f>O17/12</f>
         <v>65023.717499999992</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <f>B10+1</f>
+        <v>2019</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:J10" si="0">C10+1</f>
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/life/2020tax.xlsx
+++ b/life/2020tax.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="88">
   <si>
     <t>个人扣减额</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>2023年授予总数</t>
+  </si>
+  <si>
+    <t>okb2023</t>
+  </si>
+  <si>
+    <t>okb2024</t>
+  </si>
+  <si>
+    <t>okb2025</t>
   </si>
 </sst>
 </file>
@@ -308,20 +317,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF000000"/>
       <name val="Monaco"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2326,7 +2332,7 @@
   <dimension ref="A10:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2780,6 +2786,15 @@
       <c r="F23" t="s">
         <v>59</v>
       </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
